--- a/src/test/resources/excel/Suite.xlsx
+++ b/src/test/resources/excel/Suite.xlsx
@@ -24,16 +24,16 @@
     <t>RunMode</t>
   </si>
   <si>
+    <t>BankManagerSuite</t>
+  </si>
+  <si>
+    <t>CustomerSuite</t>
+  </si>
+  <si>
+    <t>SuiteName</t>
+  </si>
+  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>BankManagerSuite</t>
-  </si>
-  <si>
-    <t>CustomerSuite</t>
-  </si>
-  <si>
-    <t>SuiteName</t>
   </si>
 </sst>
 </file>
@@ -353,7 +353,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -362,7 +364,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -370,18 +372,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
